--- a/exposan/enviroloo/data/data_exposan_branch/impact_items.xlsx
+++ b/exposan/enviroloo/data/data_exposan_branch/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/siqi_illinois_edu/Documents/Gates_Project_NSS_report/Enviroloo_analysis/EnviroLoo_Clear_Analysis/CODES_BY_YUYAO_and_SIQI/Working_files/Envrioloo_model/data/data_exposan_branch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramData\anaconda3\envs\QSDsan\Lib\site-packages\exposan\enviroloo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="13_ncr:1_{92893B2F-98CF-4A41-924E-2667FF7BADDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16735FCE-8E4E-3444-88C3-19BDFC5C78AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD9F78-052A-4215-9462-906DA21784F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="30240" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="58">
   <si>
     <t>uniform</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>ozone production, liquid from ecoinvent 3.8 TRACI</t>
-  </si>
-  <si>
-    <t>assumption based on PVF_membrane up to 140%、135%、125%、135%</t>
   </si>
 </sst>
 </file>
@@ -227,7 +224,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -235,25 +232,25 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,29 +258,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,13 +283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,10 +304,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,19 +603,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.4609375" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -643,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -651,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -659,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -667,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -675,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -683,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -691,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -699,18 +679,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -718,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -726,7 +703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -734,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -742,7 +719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -750,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -758,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -766,7 +743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -774,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -790,24 +767,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.4609375" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" customWidth="1"/>
+    <col min="5" max="5" width="17.15234375" customWidth="1"/>
+    <col min="6" max="6" width="19.69140625" customWidth="1"/>
+    <col min="7" max="7" width="29.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -830,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -853,7 +830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -876,7 +853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -899,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -922,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -945,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -968,7 +945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -987,11 +964,11 @@
       <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1010,11 +987,11 @@
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1033,11 +1010,11 @@
       <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1053,11 +1030,11 @@
       <c r="E11">
         <v>5.0778166999999999E-2</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1080,7 +1057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1091,11 +1068,11 @@
         <v>4.3790218750000003</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D18" si="0">C13*0.9</f>
+        <f t="shared" ref="D13" si="0">C13*0.9</f>
         <v>3.9411196875000005</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E18" si="1">C13*1.1</f>
+        <f t="shared" ref="E13" si="1">C13*1.1</f>
         <v>4.8169240625000009</v>
       </c>
       <c r="F13" t="s">
@@ -1105,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1193,11 +1170,11 @@
       <c r="F17" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1220,27 +1197,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23">
-        <v>11.062602999999999</v>
-      </c>
-      <c r="D23">
-        <f>0.9*C23</f>
-        <v>9.9563427000000004</v>
-      </c>
-      <c r="E23">
-        <f>1.1*C23</f>
-        <v>12.1688633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1255,24 +1213,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="31.69140625" customWidth="1"/>
+    <col min="2" max="2" width="23.84375" customWidth="1"/>
+    <col min="3" max="3" width="20.15234375" customWidth="1"/>
+    <col min="4" max="4" width="22.4609375" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.69140625" customWidth="1"/>
+    <col min="7" max="7" width="19.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1387,7 +1345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1410,7 +1368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1525,7 +1483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1559,11 +1517,11 @@
         <v>7.6122321142258198E-3</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D17" si="0">C13*0.9</f>
+        <f t="shared" ref="D13" si="0">C13*0.9</f>
         <v>6.851008902803238E-3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E17" si="1">C13*1.1</f>
+        <f t="shared" ref="E13" si="1">C13*1.1</f>
         <v>8.3734553256484025E-3</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1573,7 +1531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1596,7 +1554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +1600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1688,28 +1646,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23">
-        <v>0.21786132</v>
-      </c>
-      <c r="D23">
-        <f>0.9*C23</f>
-        <v>0.19607518800000001</v>
-      </c>
-      <c r="E23">
-        <f>1.1*C23</f>
-        <v>0.23964745200000001</v>
       </c>
     </row>
   </sheetData>
@@ -1720,24 +1659,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3046875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.3046875" customWidth="1"/>
+    <col min="5" max="5" width="28.15234375" customWidth="1"/>
+    <col min="6" max="6" width="12.84375" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1783,20 +1722,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.32531039</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.29277935100000002</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.35784142900000004</v>
       </c>
       <c r="F3" t="s">
@@ -1806,7 +1745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1852,20 +1791,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4.5536650999999997E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>4.0982985899999998E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5.0090316100000004E-2</v>
       </c>
       <c r="F6" t="s">
@@ -1875,7 +1814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1886,11 +1825,11 @@
         <v>0.11048229451496501</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D17" si="0">C7*0.9</f>
+        <f t="shared" ref="D7:D13" si="0">C7*0.9</f>
         <v>9.943406506346851E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E17" si="1">C7*1.1</f>
+        <f t="shared" ref="E7:E13" si="1">C7*1.1</f>
         <v>0.12153052396646152</v>
       </c>
       <c r="F7" t="s">
@@ -1900,7 +1839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1923,7 +1862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1969,7 +1908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1989,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2012,7 +1951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2037,7 +1976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2060,7 +1999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2150,23 +2089,6 @@
       </c>
       <c r="G18" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.51710283999999995</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5.5130484E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6.7381702000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2177,24 +2099,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.15234375" customWidth="1"/>
+    <col min="4" max="4" width="35.15234375" customWidth="1"/>
+    <col min="5" max="5" width="28.3046875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2240,20 +2162,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.36487195</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.32838475500000003</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.40135914500000003</v>
       </c>
       <c r="F3" t="s">
@@ -2263,7 +2185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2309,20 +2231,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>9.1643753999999994E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>8.24793786E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.1008081294</v>
       </c>
       <c r="F6" t="s">
@@ -2332,7 +2254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2355,7 +2277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2378,7 +2300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2401,7 +2323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2424,7 +2346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2447,7 +2369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2470,7 +2392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2481,11 +2403,11 @@
         <v>0.150807596748742</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D17" si="0">C13*0.9</f>
+        <f t="shared" ref="D13" si="0">C13*0.9</f>
         <v>0.13572683707386782</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E17" si="1">C13*1.1</f>
+        <f t="shared" ref="E13" si="1">C13*1.1</f>
         <v>0.16588835642361621</v>
       </c>
       <c r="F13" t="s">
@@ -2495,7 +2417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2518,7 +2440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2541,7 +2463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2564,7 +2486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2587,7 +2509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2610,28 +2532,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23">
-        <v>0.10287725</v>
-      </c>
-      <c r="D23">
-        <f>0.9*C23</f>
-        <v>9.2589525000000006E-2</v>
-      </c>
-      <c r="E23">
-        <f>1.1*C23</f>
-        <v>0.11316497500000001</v>
       </c>
     </row>
   </sheetData>
